--- a/Python/Results Summary/Results_EI_NegativeNEin2020_-724_TrueREFERENCElTrans.xlsx
+++ b/Python/Results Summary/Results_EI_NegativeNEin2020_-724_TrueREFERENCElTrans.xlsx
@@ -462,7 +462,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>172004.7428468072</v>
+        <v>170884.9743875536</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>172004.7428468072</v>
+        <v>170884.9743875536</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>367468.3179231567</v>
+        <v>490808.4441641108</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -502,7 +502,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>367468.3179231567</v>
+        <v>490808.4441641108</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -526,7 +526,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>539473.0607699639</v>
+        <v>661693.4185516643</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -534,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>539473.0607699639</v>
+        <v>661693.4185516643</v>
       </c>
     </row>
   </sheetData>
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>27551.45895359045</v>
+        <v>34920.01761465169</v>
       </c>
       <c r="E4">
-        <v>27551.45895359045</v>
+        <v>34920.01761465169</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>6838.374485847116</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6838.374485847116</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -643,10 +643,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>858449.0447965136</v>
+        <v>1102498.129724219</v>
       </c>
       <c r="E6">
-        <v>858449.0447965136</v>
+        <v>1102498.129724219</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>426681.7695478362</v>
+        <v>668970.9379187396</v>
       </c>
       <c r="E7">
-        <v>426681.7695478362</v>
+        <v>668970.9379187396</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>215232.8699596717</v>
+        <v>140855.8715512375</v>
       </c>
       <c r="E8">
-        <v>215232.8699596717</v>
+        <v>140855.8715512375</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>37317.24841596062</v>
+        <v>130055.0430628642</v>
       </c>
       <c r="E9">
-        <v>37317.24841596062</v>
+        <v>130055.0430628642</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -711,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-156990.0477658243</v>
+        <v>-150981.1821909157</v>
       </c>
       <c r="E10">
-        <v>-156990.0477658243</v>
+        <v>-150981.1821909157</v>
       </c>
     </row>
   </sheetData>
@@ -772,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>16055.66189388865</v>
+        <v>2363.905008622658</v>
       </c>
       <c r="E3">
-        <v>16055.66189388865</v>
+        <v>2363.905008622658</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -806,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>25262.10961260483</v>
+        <v>31320.3475206633</v>
       </c>
       <c r="E5">
-        <v>25262.10961260483</v>
+        <v>31320.3475206633</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.54432</v>
+        <v>0.8053199999999991</v>
       </c>
       <c r="E8">
-        <v>0.54432</v>
+        <v>0.8053199999999991</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -908,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.28712199780033</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>17.28712199780033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -925,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0303765</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0303765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -942,10 +942,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>52.62226176111604</v>
+        <v>18.64856193700147</v>
       </c>
       <c r="E13">
-        <v>52.62226176111604</v>
+        <v>18.64856193700147</v>
       </c>
     </row>
   </sheetData>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6945.800935424795</v>
+        <v>8915.933386262695</v>
       </c>
       <c r="E4">
-        <v>6945.800935424795</v>
+        <v>8915.933386262695</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2788.337342283646</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2788.337342283646</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>81037.47571060521</v>
+        <v>116896.7840224072</v>
       </c>
       <c r="E6">
-        <v>81037.47571060521</v>
+        <v>116896.7840224072</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>23276.06332683836</v>
+        <v>47333.53784068992</v>
       </c>
       <c r="E7">
-        <v>23276.06332683836</v>
+        <v>47333.53784068992</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1088,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9102.662885377875</v>
+        <v>10437.38812647437</v>
       </c>
       <c r="E8">
-        <v>9102.662885377875</v>
+        <v>10437.38812647437</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7733.356002075783</v>
+        <v>23543.10912501511</v>
       </c>
       <c r="E9">
-        <v>7733.356002075783</v>
+        <v>23543.10912501511</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1122,10 +1122,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-30584.12954197085</v>
+        <v>-56972.16861887415</v>
       </c>
       <c r="E10">
-        <v>-30584.12954197085</v>
+        <v>-56972.16861887415</v>
       </c>
     </row>
   </sheetData>
